--- a/dev/material_flows_ecoinvent.xlsx
+++ b/dev/material_flows_ecoinvent.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10200" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8985"/>
   </bookViews>
   <sheets>
-    <sheet name="Ecoinvent" sheetId="1" r:id="rId1"/>
+    <sheet name="Method" sheetId="8" r:id="rId1"/>
     <sheet name="Comparison" sheetId="6" r:id="rId2"/>
-    <sheet name="European Union" sheetId="3" r:id="rId3"/>
-    <sheet name="DLR" sheetId="2" r:id="rId4"/>
-    <sheet name="WB" sheetId="5" r:id="rId5"/>
-    <sheet name="IEA" sheetId="4" r:id="rId6"/>
+    <sheet name="Ecoinvent" sheetId="1" r:id="rId3"/>
+    <sheet name="European Union" sheetId="3" r:id="rId4"/>
+    <sheet name="DLR" sheetId="2" r:id="rId5"/>
+    <sheet name="WB" sheetId="5" r:id="rId6"/>
+    <sheet name="IEA" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="561">
   <si>
     <t>Actinium, in ground</t>
   </si>
@@ -1682,13 +1683,43 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>https://ecoinvent.org/wp-content/uploads/2020/08/200712_frischknecht_jungbluth_overview_methodology_ecoinvent2.pdf</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Rhodium</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Osmium</t>
+  </si>
+  <si>
+    <t>Praseodymium</t>
+  </si>
+  <si>
+    <t>Sand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1733,8 +1764,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,6 +1793,17 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1778,13 +1827,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -1794,14 +1844,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1833,6 +1903,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>515451</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19107150" y="552450"/>
+          <a:ext cx="7887801" cy="4039164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1951,7 +2064,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1994,7 +2107,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2038,16 +2151,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H235" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H235"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:I247" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I247"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Activity"/>
     <tableColumn id="2" name="Categories"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="4" name="Unit"/>
     <tableColumn id="5" name="Key"/>
-    <tableColumn id="6" name="CRMs" dataCellStyle="Good"/>
+    <tableColumn id="6" name="CRM" dataCellStyle="Good"/>
     <tableColumn id="7" name="Group"/>
+    <tableColumn id="9" name="Factor"/>
     <tableColumn id="8" name="Included in DLR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2061,6 +2175,23 @@
     <tableColumn id="1" name="DLR"/>
     <tableColumn id="2" name="European Union"/>
     <tableColumn id="3" name="WorldBank"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H235" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H235"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Activity"/>
+    <tableColumn id="2" name="Categories"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="4" name="Unit"/>
+    <tableColumn id="5" name="Key"/>
+    <tableColumn id="6" name="CRMs" dataCellStyle="Good"/>
+    <tableColumn id="7" name="Group"/>
+    <tableColumn id="8" name="Included in DLR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2329,10 +2460,6750 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W247"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>549</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>512</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>538</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>489</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>481</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>482</v>
+      </c>
+      <c r="G15" t="s">
+        <v>520</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>482</v>
+      </c>
+      <c r="G16" t="s">
+        <v>520</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>534</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>534</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>515</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>483</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>483</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>539</v>
+      </c>
+      <c r="H23">
+        <f>1*(0.0082/0.27)</f>
+        <v>3.037037037037037E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>539</v>
+      </c>
+      <c r="H25">
+        <f>1*(0.0082/0.22)</f>
+        <v>3.7272727272727277E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H27">
+        <f>1*(0.041/0.36)</f>
+        <v>0.1138888888888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>539</v>
+      </c>
+      <c r="H29">
+        <f>1*(0.0082/0.36)</f>
+        <v>2.2777777777777782E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>496</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" t="s">
+        <v>539</v>
+      </c>
+      <c r="H33">
+        <f>1*(0.0082/0.39)</f>
+        <v>2.1025641025641025E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>540</v>
+      </c>
+      <c r="H35">
+        <f>1*(0.1/0.24)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>539</v>
+      </c>
+      <c r="H37">
+        <f>1*(0.0082/0.81)</f>
+        <v>1.0123456790123457E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>539</v>
+      </c>
+      <c r="H39">
+        <f>1*(0.0082/1.83)</f>
+        <v>4.4808743169398911E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" t="s">
+        <v>497</v>
+      </c>
+      <c r="G45" t="s">
+        <v>525</v>
+      </c>
+      <c r="H45">
+        <f>1*(0.00025/3.2)</f>
+        <v>7.8125000000000002E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" t="s">
+        <v>555</v>
+      </c>
+      <c r="G46" t="s">
+        <v>525</v>
+      </c>
+      <c r="H46">
+        <f>1*(0.00073/3.2)</f>
+        <v>2.2812499999999997E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" t="s">
+        <v>556</v>
+      </c>
+      <c r="G47" t="s">
+        <v>525</v>
+      </c>
+      <c r="H47">
+        <f>1*(0.00002/3.2)</f>
+        <v>6.2500000000000003E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>496</v>
+      </c>
+      <c r="H48">
+        <f>1*(2.3/3.2)</f>
+        <v>0.71874999999999989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>497</v>
+      </c>
+      <c r="G50" t="s">
+        <v>525</v>
+      </c>
+      <c r="H50">
+        <f>1*(0.00048/0.052)</f>
+        <v>9.2307692307692316E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
+        <v>555</v>
+      </c>
+      <c r="G51" t="s">
+        <v>525</v>
+      </c>
+      <c r="H51">
+        <f>1*(0.0002/0.052)</f>
+        <v>3.8461538461538464E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>556</v>
+      </c>
+      <c r="G52" t="s">
+        <v>525</v>
+      </c>
+      <c r="H52" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
+        <v>496</v>
+      </c>
+      <c r="H53">
+        <f>1*(0.037/0.052)</f>
+        <v>0.71153846153846156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" t="s">
+        <v>554</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" t="s">
+        <v>480</v>
+      </c>
+      <c r="H67">
+        <f>1*(0.0042/0.00011)</f>
+        <v>38.18181818181818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" t="s">
+        <v>480</v>
+      </c>
+      <c r="H69">
+        <f>1*(0.000046/0.00013)</f>
+        <v>0.35384615384615387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" t="s">
+        <v>554</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>154</v>
+      </c>
+      <c r="F71" t="s">
+        <v>554</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" t="s">
+        <v>480</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" t="s">
+        <v>554</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" t="s">
+        <v>554</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" t="s">
+        <v>480</v>
+      </c>
+      <c r="H77">
+        <f>1*(0.000015/0.00054)</f>
+        <v>2.777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" t="s">
+        <v>554</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" t="s">
+        <v>480</v>
+      </c>
+      <c r="H80">
+        <f>1*(0.00015/0.00068)</f>
+        <v>0.22058823529411761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>172</v>
+      </c>
+      <c r="F84" t="s">
+        <v>480</v>
+      </c>
+      <c r="H84">
+        <f>1*(0.000076/0.000097)</f>
+        <v>0.78350515463917525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" t="s">
+        <v>538</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" t="s">
+        <v>540</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" t="s">
+        <v>480</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" t="s">
+        <v>481</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H94" s="4">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H99" s="4">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>216</v>
+      </c>
+      <c r="F101" t="s">
+        <v>540</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>216</v>
+      </c>
+      <c r="F102" t="s">
+        <v>480</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>216</v>
+      </c>
+      <c r="F103" t="s">
+        <v>481</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>216</v>
+      </c>
+      <c r="F104" t="s">
+        <v>489</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H110" s="4">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H116" s="4">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>244</v>
+      </c>
+      <c r="F118" t="s">
+        <v>535</v>
+      </c>
+      <c r="H118">
+        <f>1*(1.83/0.0082)</f>
+        <v>223.17073170731706</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F120" t="s">
+        <v>535</v>
+      </c>
+      <c r="H120">
+        <f>1*(0.81/0.0082)</f>
+        <v>98.780487804878049</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>248</v>
+      </c>
+      <c r="F122" t="s">
+        <v>535</v>
+      </c>
+      <c r="H122">
+        <f>1*(0.27/0.0082)</f>
+        <v>32.926829268292686</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" t="s">
+        <v>535</v>
+      </c>
+      <c r="H124">
+        <f>1*(0.22/0.0082)</f>
+        <v>26.829268292682926</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" t="s">
+        <v>535</v>
+      </c>
+      <c r="H126">
+        <f>1*(0.36/0.0082)</f>
+        <v>43.90243902439024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
+        <v>535</v>
+      </c>
+      <c r="H128">
+        <f>1*(0.39/0.0082)</f>
+        <v>47.560975609756092</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
+        <v>535</v>
+      </c>
+      <c r="H130">
+        <f>1*(0.36/0.041)</f>
+        <v>8.7804878048780477</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H132" s="4">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
+        <v>497</v>
+      </c>
+      <c r="G135" t="s">
+        <v>525</v>
+      </c>
+      <c r="H135">
+        <f>1*(0.00025/2.3)</f>
+        <v>1.0869565217391305E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
+        <v>555</v>
+      </c>
+      <c r="G136" t="s">
+        <v>525</v>
+      </c>
+      <c r="H136">
+        <f>1*(0.00073/2.3)</f>
+        <v>3.1739130434782611E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
+        <v>556</v>
+      </c>
+      <c r="G137" t="s">
+        <v>525</v>
+      </c>
+      <c r="H137">
+        <f>1*(0.00002/2.3)</f>
+        <v>8.6956521739130444E-6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
+        <v>535</v>
+      </c>
+      <c r="H138">
+        <f>1*(3.2/2.3)</f>
+        <v>1.3913043478260871</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>265</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
+        <v>497</v>
+      </c>
+      <c r="G140" t="s">
+        <v>525</v>
+      </c>
+      <c r="H140">
+        <f>1*(0.00048/0.037)</f>
+        <v>1.2972972972972974E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" t="s">
+        <v>555</v>
+      </c>
+      <c r="G141" t="s">
+        <v>525</v>
+      </c>
+      <c r="H141">
+        <f>1*(0.0002/0.037)</f>
+        <v>5.4054054054054057E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>265</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>266</v>
+      </c>
+      <c r="F142" t="s">
+        <v>556</v>
+      </c>
+      <c r="G142" t="s">
+        <v>525</v>
+      </c>
+      <c r="H142">
+        <f>1*(0.000024/0.037)</f>
+        <v>6.4864864864864872E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>266</v>
+      </c>
+      <c r="F143" t="s">
+        <v>535</v>
+      </c>
+      <c r="H143">
+        <f>1*(0.052/0.037)</f>
+        <v>1.4054054054054055</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>268</v>
+      </c>
+      <c r="F145" t="s">
+        <v>535</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H150" s="4">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H151" s="4">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>286</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H152" s="4">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>288</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H153" s="4">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>287</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>288</v>
+      </c>
+      <c r="F154" t="s">
+        <v>497</v>
+      </c>
+      <c r="G154" t="s">
+        <v>525</v>
+      </c>
+      <c r="H154">
+        <f>1*(0.00048/0.0002)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
+        <v>556</v>
+      </c>
+      <c r="G155" t="s">
+        <v>525</v>
+      </c>
+      <c r="H155">
+        <f>1*(0.000024/0.0002)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>287</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>288</v>
+      </c>
+      <c r="F156" t="s">
+        <v>496</v>
+      </c>
+      <c r="H156">
+        <f>1*(0.037/0.0002)</f>
+        <v>184.99999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>287</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>288</v>
+      </c>
+      <c r="F157" t="s">
+        <v>535</v>
+      </c>
+      <c r="H157">
+        <f>1*(0.052/0.0002)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>290</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H158" s="4">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>290</v>
+      </c>
+      <c r="F159" t="s">
+        <v>497</v>
+      </c>
+      <c r="G159" t="s">
+        <v>525</v>
+      </c>
+      <c r="H159">
+        <f>1*(0.00025/0.00073)</f>
+        <v>0.34246575342465757</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>289</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>290</v>
+      </c>
+      <c r="F160" t="s">
+        <v>556</v>
+      </c>
+      <c r="G160" t="s">
+        <v>525</v>
+      </c>
+      <c r="H160">
+        <f>1*(0.00002/0.00073)</f>
+        <v>2.7397260273972605E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>289</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>290</v>
+      </c>
+      <c r="F161" t="s">
+        <v>496</v>
+      </c>
+      <c r="H161">
+        <f>1*(2.3/0.00073)</f>
+        <v>3150.6849315068494</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>289</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" t="s">
+        <v>290</v>
+      </c>
+      <c r="F162" t="s">
+        <v>535</v>
+      </c>
+      <c r="H162">
+        <f>1*(3.2/0.00073)</f>
+        <v>4383.5616438356165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F167" t="s">
+        <v>497</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H169" s="4">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H170" s="4">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H171" s="4">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>316</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>317</v>
+      </c>
+      <c r="F172" t="s">
+        <v>555</v>
+      </c>
+      <c r="G172" t="s">
+        <v>525</v>
+      </c>
+      <c r="H172">
+        <f>1*(0.00073/0.00025)</f>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>316</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>317</v>
+      </c>
+      <c r="F173" t="s">
+        <v>556</v>
+      </c>
+      <c r="G173" t="s">
+        <v>525</v>
+      </c>
+      <c r="H173">
+        <f>1*(0.00002/0.00025)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>316</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>317</v>
+      </c>
+      <c r="F174" t="s">
+        <v>496</v>
+      </c>
+      <c r="H174">
+        <f>1*(2.3/0.00025)</f>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>316</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>317</v>
+      </c>
+      <c r="F175" t="s">
+        <v>535</v>
+      </c>
+      <c r="H175">
+        <f>1*(3.2/0.00025)</f>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G176" t="s">
+        <v>525</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>318</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>319</v>
+      </c>
+      <c r="F177" t="s">
+        <v>555</v>
+      </c>
+      <c r="G177" t="s">
+        <v>525</v>
+      </c>
+      <c r="H177">
+        <f>1*(0.0002/0.00048)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>318</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>319</v>
+      </c>
+      <c r="F178" t="s">
+        <v>556</v>
+      </c>
+      <c r="G178" t="s">
+        <v>525</v>
+      </c>
+      <c r="H178">
+        <f>1*(0.000024/0.00048)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>318</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>319</v>
+      </c>
+      <c r="F179" t="s">
+        <v>496</v>
+      </c>
+      <c r="H179">
+        <f>1*(0.037/0.00048)</f>
+        <v>77.083333333333329</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>318</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" t="s">
+        <v>319</v>
+      </c>
+      <c r="F180" t="s">
+        <v>535</v>
+      </c>
+      <c r="H180">
+        <f>1*(0.052/0.00048)</f>
+        <v>108.33333333333333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H181" s="4">
+        <v>1</v>
+      </c>
+      <c r="I181" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>328</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>329</v>
+      </c>
+      <c r="F182" t="s">
+        <v>497</v>
+      </c>
+      <c r="G182" t="s">
+        <v>525</v>
+      </c>
+      <c r="H182">
+        <f>1*(0.00025/0.00002)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>328</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" t="s">
+        <v>329</v>
+      </c>
+      <c r="F183" t="s">
+        <v>555</v>
+      </c>
+      <c r="G183" t="s">
+        <v>525</v>
+      </c>
+      <c r="H183">
+        <f>1*(0.00073/0.00002)</f>
+        <v>36.499999999999993</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>328</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>329</v>
+      </c>
+      <c r="F184" t="s">
+        <v>496</v>
+      </c>
+      <c r="H184">
+        <f>1*(2.3/0.00002)</f>
+        <v>114999.99999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>328</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>329</v>
+      </c>
+      <c r="F185" t="s">
+        <v>535</v>
+      </c>
+      <c r="H185">
+        <f>1*(3.2/0.00002)</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H186" s="4">
+        <v>1</v>
+      </c>
+      <c r="I186" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>331</v>
+      </c>
+      <c r="F187" t="s">
+        <v>497</v>
+      </c>
+      <c r="G187" t="s">
+        <v>525</v>
+      </c>
+      <c r="H187">
+        <f>1*(0.00048/0.000024)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>330</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>331</v>
+      </c>
+      <c r="F188" t="s">
+        <v>555</v>
+      </c>
+      <c r="G188" t="s">
+        <v>525</v>
+      </c>
+      <c r="H188">
+        <f>1*(0.0002/0.000024)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>330</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>331</v>
+      </c>
+      <c r="F189" t="s">
+        <v>496</v>
+      </c>
+      <c r="H189">
+        <f>1*(0.037/0.000024)</f>
+        <v>1541.6666666666665</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>330</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>331</v>
+      </c>
+      <c r="F190" t="s">
+        <v>535</v>
+      </c>
+      <c r="H190">
+        <f>1*(0.052/0.000024)</f>
+        <v>2166.6666666666665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H191" s="4">
+        <v>1</v>
+      </c>
+      <c r="I191" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>339</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H192" s="4">
+        <v>1</v>
+      </c>
+      <c r="I192" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H193" s="4">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>348</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>349</v>
+      </c>
+      <c r="F194" t="s">
+        <v>560</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>358</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s">
+        <v>359</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>358</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" t="s">
+        <v>359</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>358</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+      <c r="E201" t="s">
+        <v>359</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>358</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" t="s">
+        <v>359</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>361</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>362</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" t="s">
+        <v>363</v>
+      </c>
+      <c r="F205" t="s">
+        <v>535</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>362</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>363</v>
+      </c>
+      <c r="F206" t="s">
+        <v>502</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" t="s">
+        <v>365</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>364</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>365</v>
+      </c>
+      <c r="F208" t="s">
+        <v>554</v>
+      </c>
+      <c r="H208">
+        <f>1*(0.00068/0.00015)</f>
+        <v>4.5333333333333341</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>367</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>366</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>367</v>
+      </c>
+      <c r="F210" t="s">
+        <v>554</v>
+      </c>
+      <c r="H210">
+        <f>1*(0.00054/0.000015)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" t="s">
+        <v>369</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>371</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>370</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>371</v>
+      </c>
+      <c r="F213" t="s">
+        <v>554</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>373</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>373</v>
+      </c>
+      <c r="F215" t="s">
+        <v>554</v>
+      </c>
+      <c r="H215">
+        <f>1*(0.00011/0.0042)</f>
+        <v>2.6190476190476195E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" t="s">
+        <v>375</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>374</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" t="s">
+        <v>375</v>
+      </c>
+      <c r="F217" t="s">
+        <v>554</v>
+      </c>
+      <c r="H217">
+        <f>1*(0.00013/0.000046)</f>
+        <v>2.8260869565217388</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" t="s">
+        <v>377</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219" t="s">
+        <v>379</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>378</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" t="s">
+        <v>379</v>
+      </c>
+      <c r="H220">
+        <f>1*(0.000097/0.000076)</f>
+        <v>1.2763157894736841</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>381</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>412</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>3</v>
+      </c>
+      <c r="E228" t="s">
+        <v>413</v>
+      </c>
+      <c r="F228" t="s">
+        <v>535</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>412</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" t="s">
+        <v>413</v>
+      </c>
+      <c r="F229" t="s">
+        <v>480</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H231" s="4">
+        <v>1</v>
+      </c>
+      <c r="I231" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H232" s="4">
+        <v>1</v>
+      </c>
+      <c r="I232" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H236" s="4">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H237" s="4">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>461</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" t="s">
+        <v>462</v>
+      </c>
+      <c r="F239" t="s">
+        <v>538</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>461</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" t="s">
+        <v>462</v>
+      </c>
+      <c r="F240" t="s">
+        <v>480</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>461</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>3</v>
+      </c>
+      <c r="E241" t="s">
+        <v>462</v>
+      </c>
+      <c r="F241" t="s">
+        <v>481</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" t="s">
+        <v>464</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>3</v>
+      </c>
+      <c r="E243" t="s">
+        <v>466</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>3</v>
+      </c>
+      <c r="E244" t="s">
+        <v>468</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>485</v>
+      </c>
+      <c r="B18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>493</v>
+      </c>
+      <c r="B29" t="s">
+        <v>493</v>
+      </c>
+      <c r="C29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>494</v>
+      </c>
+      <c r="C31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>495</v>
+      </c>
+      <c r="C35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>496</v>
+      </c>
+      <c r="C36" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>499</v>
+      </c>
+      <c r="B43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>480</v>
+      </c>
+      <c r="C46" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>501</v>
+      </c>
+      <c r="B47" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>532</v>
+      </c>
+      <c r="C51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>503</v>
+      </c>
+      <c r="B53" t="s">
+        <v>503</v>
+      </c>
+      <c r="C53" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D2:D74">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,376 +14134,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>483</v>
-      </c>
-      <c r="B12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>485</v>
-      </c>
-      <c r="B18" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>488</v>
-      </c>
-      <c r="B19" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>489</v>
-      </c>
-      <c r="B23" t="s">
-        <v>489</v>
-      </c>
-      <c r="C23" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>493</v>
-      </c>
-      <c r="B29" t="s">
-        <v>493</v>
-      </c>
-      <c r="C29" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>494</v>
-      </c>
-      <c r="C31" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>495</v>
-      </c>
-      <c r="C35" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>496</v>
-      </c>
-      <c r="C36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>499</v>
-      </c>
-      <c r="B43" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>480</v>
-      </c>
-      <c r="C46" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>501</v>
-      </c>
-      <c r="B47" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>532</v>
-      </c>
-      <c r="C51" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>503</v>
-      </c>
-      <c r="B53" t="s">
-        <v>503</v>
-      </c>
-      <c r="C53" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>505</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="D2:D74">
-    <sortCondition ref="D1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -7808,7 +14314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A27"/>
   <sheetViews>
@@ -7960,7 +14466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -8070,11 +14576,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/dev/material_flows_ecoinvent.xlsx
+++ b/dev/material_flows_ecoinvent.xlsx
@@ -2151,7 +2151,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:I247" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:I247" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:I247"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Activity"/>
@@ -2181,7 +2181,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H235" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H235" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:H235"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Activity"/>
@@ -2463,7 +2463,7 @@
   <dimension ref="A1:W247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H221" sqref="H221"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev/material_flows_ecoinvent.xlsx
+++ b/dev/material_flows_ecoinvent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Method" sheetId="8" r:id="rId1"/>
@@ -2462,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246:E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8772,19 +8772,19 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B246" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E246" s="5" t="s">
+      <c r="B246" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" s="4" t="s">
         <v>472</v>
       </c>
       <c r="F246" s="4" t="s">
